--- a/BestBuyDealoftheDay/src/test/resources/ExcelData/scenariooutline3.xlsx
+++ b/BestBuyDealoftheDay/src/test/resources/ExcelData/scenariooutline3.xlsx
@@ -3,29 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA8697E7-7280-4CB8-87A2-C2D8DE1FC429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Java\SprintBestBuy\BestBuyDealoftheDay\src\test\resources\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACCF253-9352-4F13-ADB1-C71092794331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{880E60A7-D1B0-4D0E-B1D5-0432E50E10E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -409,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAACAA1F-B8A0-4C47-B0CB-4E5D163291A2}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -417,18 +411,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A12BB03-7B2F-40FA-82BE-7C5F8CAF3C52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>